--- a/Scrum Documents/Sprint 2/Sprint 2 Burnup.xlsx
+++ b/Scrum Documents/Sprint 2/Sprint 2 Burnup.xlsx
@@ -76,7 +76,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr/>
+              <a:defRPr b="0"/>
             </a:pPr>
             <a:r>
               <a:t>Sprint 2 Burnup</a:t>
@@ -149,11 +149,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2117400349"/>
-        <c:axId val="203173193"/>
+        <c:axId val="1065765120"/>
+        <c:axId val="379581601"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2117400349"/>
+        <c:axId val="1065765120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -164,14 +164,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr/>
+              <a:defRPr b="0"/>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203173193"/>
+        <c:crossAx val="379581601"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203173193"/>
+        <c:axId val="379581601"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -198,11 +198,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr/>
+              <a:defRPr b="0"/>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117400349"/>
+        <c:crossAx val="1065765120"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -265,57 +265,69 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>43032.0</v>
+        <v>43031.0</v>
       </c>
       <c r="B2" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>14.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
         <v>43034.0</v>
       </c>
       <c r="B3" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>14.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>43036.0</v>
+        <v>43037.0</v>
       </c>
       <c r="B4" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>14.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>43039.0</v>
+        <v>43040.0</v>
       </c>
       <c r="B5" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>14.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>43041.0</v>
+        <v>43042.0</v>
       </c>
       <c r="B6" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>14.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>43043.0</v>
+        <v>43044.0</v>
       </c>
       <c r="B7" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>14.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
